--- a/mysite/logistics.xlsx
+++ b/mysite/logistics.xlsx
@@ -74,6 +74,72 @@
     <t>서울시 강남구 논현 한진택배 영업소</t>
   </si>
   <si>
+    <t>정홍영</t>
+  </si>
+  <si>
+    <t>61086</t>
+  </si>
+  <si>
+    <t>광주광역시 북구 신용동 671 첨단2지구중흥에스클레스</t>
+  </si>
+  <si>
+    <t>01036147707</t>
+  </si>
+  <si>
+    <t>072799be-91b6-4ef4-b3d4-dad11a37a0bb</t>
+  </si>
+  <si>
+    <t>알래스카오메가 - 1개</t>
+  </si>
+  <si>
+    <t>한석환</t>
+  </si>
+  <si>
+    <t>14528</t>
+  </si>
+  <si>
+    <t>경기도 부천시 춘의동 121 현봉빌딩</t>
+  </si>
+  <si>
+    <t>01042554261</t>
+  </si>
+  <si>
+    <t>c3f91417-bbdc-4799-b076-62b671036a43</t>
+  </si>
+  <si>
+    <t>나토키나제 - 1개</t>
+  </si>
+  <si>
+    <t>박귀숙</t>
+  </si>
+  <si>
+    <t>50606</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 물금읍 범어리 2713-1 신창비바패밀리</t>
+  </si>
+  <si>
+    <t>01049945366</t>
+  </si>
+  <si>
+    <t>9060275d-9538-45c8-942a-2442d8b4240d</t>
+  </si>
+  <si>
+    <t>정숙경</t>
+  </si>
+  <si>
+    <t>50994</t>
+  </si>
+  <si>
+    <t>경상남도 김해시 대청동 334-4 부영아파트6단지</t>
+  </si>
+  <si>
+    <t>01023778544</t>
+  </si>
+  <si>
+    <t>39d62e00-2c04-4d25-bc50-51b9aeb69005</t>
+  </si>
+  <si>
     <t>윤혁진</t>
   </si>
   <si>
@@ -86,43 +152,28 @@
     <t>01037318185</t>
   </si>
   <si>
-    <t>dd6d5596-9b81-4454-899a-04b59eed4726</t>
-  </si>
-  <si>
-    <t>['버블샴푸']</t>
-  </si>
-  <si>
-    <t>정숙경</t>
-  </si>
-  <si>
-    <t>50994</t>
-  </si>
-  <si>
-    <t>경상남도 김해시 대청동 334-4 부영아파트6단지</t>
-  </si>
-  <si>
-    <t>01023778544</t>
-  </si>
-  <si>
-    <t>2cd817ab-1941-47b2-a47a-e0153d9777f8</t>
-  </si>
-  <si>
-    <t>['알래스카오메가']</t>
-  </si>
-  <si>
-    <t>정홍영</t>
-  </si>
-  <si>
-    <t>61086</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 신용동 671 첨단2지구중흥에스클레스</t>
-  </si>
-  <si>
-    <t>01036147707</t>
-  </si>
-  <si>
-    <t>a5e4bf3a-c05a-4867-a84c-2272f1a4b46c</t>
+    <t>1964e787-1389-406c-a895-8e82336857d8</t>
+  </si>
+  <si>
+    <t>버블샴푸 - 1개</t>
+  </si>
+  <si>
+    <t>백은혜</t>
+  </si>
+  <si>
+    <t>32007</t>
+  </si>
+  <si>
+    <t>충청남도 서산시 죽성동 74-1 죽성동삼성아파트</t>
+  </si>
+  <si>
+    <t>01068687991</t>
+  </si>
+  <si>
+    <t>6297755b-6bb2-4593-8b44-a1acea72a962</t>
+  </si>
+  <si>
+    <t>삼성밝은세상비타민 - 1개</t>
   </si>
   <si>
     <t>김명선</t>
@@ -137,10 +188,7 @@
     <t>01062466027</t>
   </si>
   <si>
-    <t>e3cdb2b9-7225-4213-8ea4-32410a1e2d56</t>
-  </si>
-  <si>
-    <t>['나토키나제']</t>
+    <t>95f5bd42-3f75-463e-bace-d3ec65795381</t>
   </si>
   <si>
     <t>양지원</t>
@@ -158,10 +206,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>0492df6b-e625-4fa2-b6b7-39c42d4c37aa</t>
-  </si>
-  <si>
-    <t>['삼성밝은세상비타민']</t>
+    <t>e679ba88-e7c2-4ba8-a972-0cd105f17441</t>
   </si>
   <si>
     <t>유채희</t>
@@ -176,7 +221,7 @@
     <t>01077289772</t>
   </si>
   <si>
-    <t>f5f97caf-c31b-466e-b84e-743d88d439cb</t>
+    <t>974a2a66-c081-456a-bc6f-4b177c931990</t>
   </si>
   <si>
     <t>홍수정</t>
@@ -191,22 +236,7 @@
     <t>01045900867</t>
   </si>
   <si>
-    <t>08aa96b0-7022-48d8-accf-92932b09da51</t>
-  </si>
-  <si>
-    <t>박귀숙</t>
-  </si>
-  <si>
-    <t>50606</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 물금읍 범어리 2713-1 신창비바패밀리</t>
-  </si>
-  <si>
-    <t>01049945366</t>
-  </si>
-  <si>
-    <t>7921f967-fb0f-40f8-b430-4d83fe2808ae</t>
+    <t>fa67f64f-1ad8-4ac9-8b10-15cae1fcd448</t>
   </si>
   <si>
     <t>김종윤</t>
@@ -221,37 +251,7 @@
     <t>01032525816</t>
   </si>
   <si>
-    <t>7da12256-b09b-4284-9242-72f4660f01c0</t>
-  </si>
-  <si>
-    <t>백은혜</t>
-  </si>
-  <si>
-    <t>32007</t>
-  </si>
-  <si>
-    <t>충청남도 서산시 죽성동 74-1 죽성동삼성아파트</t>
-  </si>
-  <si>
-    <t>01068687991</t>
-  </si>
-  <si>
-    <t>9740792a-5d0e-4c39-b836-53c46182ade5</t>
-  </si>
-  <si>
-    <t>한석환</t>
-  </si>
-  <si>
-    <t>14528</t>
-  </si>
-  <si>
-    <t>경기도 부천시 춘의동 121 현봉빌딩</t>
-  </si>
-  <si>
-    <t>01042554261</t>
-  </si>
-  <si>
-    <t>f50f4808-4e7e-4b57-9acc-709c3dfc70cd</t>
+    <t>306c6515-c20e-46a9-bad6-461119a6259a</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
         <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s"/>
     </row>
@@ -811,13 +811,13 @@
         <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -833,35 +833,31 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
       </c>
       <c r="P6" t="s"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -877,35 +873,31 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>52</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
       </c>
       <c r="P7" t="s"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -921,26 +913,22 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s">
         <v>57</v>
-      </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>58</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
@@ -949,7 +937,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -965,31 +953,35 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
         <v>59</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>61</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s"/>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>62</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1017,19 +1009,23 @@
         <v>67</v>
       </c>
       <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
       <c r="N10" t="s">
         <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1057,13 +1053,17 @@
         <v>72</v>
       </c>
       <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s"/>
     </row>
@@ -1103,7 +1103,7 @@
         <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s"/>
     </row>
